--- a/medicine/Enfance/Roger_Rudigoz/Roger_Rudigoz.xlsx
+++ b/medicine/Enfance/Roger_Rudigoz/Roger_Rudigoz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Rudigoz (26 août 1922, Romans-sur-Isère - 21 février 1996, Le Pouget), est un écrivain français, auteur de romans, de contes et d'un journal intime.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la Seconde Guerre mondiale, il est déporté au camp de concentration de Dachau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale, il est déporté au camp de concentration de Dachau.
 </t>
         </is>
       </c>
@@ -542,22 +556,24 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Dragon Solassier (1957)
 Solassier l'Anar (1958)
 Chien méchant, pamphlet, (1959)
 L'Opéra-bouffe: Claire Solassier, tome I, Julliard, (1961)
 Le rendez-vous des Lilas: Claire Solassier, tome II, Julliard, (1962)
-Saute le temps, Julliard, 1962 ; réédition éditions Finitude, 2012[2]
-À tout prix, Julliard, 1963 ; réédition éditions Finitude, 2014[3]
+Saute le temps, Julliard, 1962 ; réédition éditions Finitude, 2012
+À tout prix, Julliard, 1963 ; réédition éditions Finitude, 2014
 La Mort d'un autre, pièce de théâtre, (1968)
 Armande ou le roman (1969)
 Les Contes de la souris chauve, illustrations de Philippe Dumas, L'École des loisirs, (1982)
 La Souris chauve est née coiffée, L'École des loisirs, (1983)
 Zogidur, L'École des loisirs, (1985)
-Les Infirmières d'Orange, L'École des loisirs, (1985)[4]
-Le Fauteuil vert (1986) - Prix Antigone décerné lors de la Comédie du Livre de Montpellier[1]</t>
+Les Infirmières d'Orange, L'École des loisirs, (1985)
+Le Fauteuil vert (1986) - Prix Antigone décerné lors de la Comédie du Livre de Montpellier</t>
         </is>
       </c>
     </row>
